--- a/cam6_validation.xlsx
+++ b/cam6_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FB926-8AD3-4901-A5AB-C467EE5597AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D59B9A-A590-49E1-A67A-1817D64D3EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12866" yWindow="2829" windowWidth="24685" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18746" yWindow="3129" windowWidth="16191" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>896.49</v>
+        <v>869.721</v>
       </c>
       <c r="B1" s="1">
-        <v>1018.153</v>
+        <v>1018.2670000000001</v>
       </c>
       <c r="C1" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,73 +372,73 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>931.45399999999995</v>
+        <v>900.04499999999996</v>
       </c>
       <c r="B2" s="1">
-        <v>1791.6320000000001</v>
+        <v>1796.3920000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.07</v>
+        <v>-15.93</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>924.26599999999996</v>
+        <v>893.91099999999994</v>
       </c>
       <c r="B3" s="1">
-        <v>1687.441</v>
+        <v>1699.556</v>
       </c>
       <c r="C3" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.02</v>
+        <v>-14.07</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>917.90300000000002</v>
+        <v>887.88300000000004</v>
       </c>
       <c r="B4" s="1">
-        <v>1586.99</v>
+        <v>1596.3230000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D4" s="1">
-        <v>-11.98</v>
+        <v>-12.02</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>912.48500000000001</v>
+        <v>883.05600000000004</v>
       </c>
       <c r="B5" s="1">
-        <v>1490.3109999999999</v>
+        <v>1497.415</v>
       </c>
       <c r="C5" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.9700000000000006</v>
+        <v>-10.02</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>907.81899999999996</v>
+        <v>878.93100000000004</v>
       </c>
       <c r="B6" s="1">
-        <v>1393.9670000000001</v>
+        <v>1398.8440000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D6" s="1">
         <v>-8</v>
@@ -447,43 +447,43 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>903.96799999999996</v>
+        <v>875.50699999999995</v>
       </c>
       <c r="B7" s="1">
-        <v>1298.6179999999999</v>
+        <v>1302.68</v>
       </c>
       <c r="C7" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.97</v>
+        <v>-6.03</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>900.57500000000005</v>
+        <v>872.86400000000003</v>
       </c>
       <c r="B8" s="1">
-        <v>1204.3</v>
+        <v>1205.33</v>
       </c>
       <c r="C8" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D8" s="1">
-        <v>-4</v>
+        <v>-3.97</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>898.30399999999997</v>
+        <v>870.91899999999998</v>
       </c>
       <c r="B9" s="1">
-        <v>1109.4739999999999</v>
+        <v>1112.0440000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D9" s="1">
         <v>-1.97</v>
@@ -492,148 +492,148 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>896.43499999999995</v>
+        <v>869.625</v>
       </c>
       <c r="B10" s="1">
-        <v>1015.439</v>
+        <v>1017.486</v>
       </c>
       <c r="C10" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>895.40300000000002</v>
+        <v>869.12</v>
       </c>
       <c r="B11" s="1">
-        <v>921.58</v>
+        <v>925.38800000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>894.94</v>
+        <v>869.18200000000002</v>
       </c>
       <c r="B12" s="1">
-        <v>826.35699999999997</v>
+        <v>831.77300000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D12" s="1">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>895.15599999999995</v>
+        <v>870.00400000000002</v>
       </c>
       <c r="B13" s="1">
-        <v>732.94399999999996</v>
+        <v>738.86</v>
       </c>
       <c r="C13" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D13" s="1">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>896.42100000000005</v>
+        <v>871.82299999999998</v>
       </c>
       <c r="B14" s="1">
-        <v>636.41499999999996</v>
+        <v>645.72500000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>898.26</v>
+        <v>873.99300000000005</v>
       </c>
       <c r="B15" s="1">
-        <v>539.11800000000005</v>
+        <v>550.322</v>
       </c>
       <c r="C15" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D15" s="1">
-        <v>9.9700000000000006</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>900.46799999999996</v>
+        <v>876.90499999999997</v>
       </c>
       <c r="B16" s="1">
-        <v>439.14699999999999</v>
+        <v>454.89400000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D16" s="1">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>904.10199999999998</v>
+        <v>880.07899999999995</v>
       </c>
       <c r="B17" s="1">
-        <v>340.41399999999999</v>
+        <v>357.72500000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D17" s="1">
-        <v>13.97</v>
+        <v>14.05</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>907.952</v>
+        <v>884.30200000000002</v>
       </c>
       <c r="B18" s="1">
-        <v>237.595</v>
+        <v>260.12099999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="D18" s="1">
-        <v>15.95</v>
+        <v>16.07</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>877.66</v>
+        <v>851.5</v>
       </c>
       <c r="B19" s="1">
-        <v>1018.175</v>
+        <v>1018.259</v>
       </c>
       <c r="C19" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,73 +642,73 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>912.01</v>
+        <v>881.053</v>
       </c>
       <c r="B20" s="1">
-        <v>1790.796</v>
+        <v>1793.837</v>
       </c>
       <c r="C20" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>904.91700000000003</v>
+        <v>875.21299999999997</v>
       </c>
       <c r="B21" s="1">
-        <v>1686.317</v>
+        <v>1698.1659999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D21" s="1">
-        <v>-14.02</v>
+        <v>-14.1</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>898.91700000000003</v>
+        <v>869.43299999999999</v>
       </c>
       <c r="B22" s="1">
-        <v>1585.8240000000001</v>
+        <v>1594.0609999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.98</v>
+        <v>-12.03</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>893.52099999999996</v>
+        <v>864.50099999999998</v>
       </c>
       <c r="B23" s="1">
-        <v>1489.73</v>
+        <v>1494.8620000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.9700000000000006</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>889.05200000000002</v>
+        <v>860.5</v>
       </c>
       <c r="B24" s="1">
-        <v>1394.3320000000001</v>
+        <v>1396.95</v>
       </c>
       <c r="C24" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D24" s="1">
         <v>-8</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>885.28399999999999</v>
+        <v>857.19</v>
       </c>
       <c r="B25" s="1">
-        <v>1298.5830000000001</v>
+        <v>1300.548</v>
       </c>
       <c r="C25" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D25" s="1">
         <v>-6</v>
@@ -732,13 +732,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>881.84900000000005</v>
+        <v>854.5</v>
       </c>
       <c r="B26" s="1">
-        <v>1202.7860000000001</v>
+        <v>1205.7809999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D26" s="1">
         <v>-3.97</v>
@@ -747,13 +747,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>879.53300000000002</v>
+        <v>852.62599999999998</v>
       </c>
       <c r="B27" s="1">
-        <v>1109.5650000000001</v>
+        <v>1111.454</v>
       </c>
       <c r="C27" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D27" s="1">
         <v>-1.97</v>
@@ -762,148 +762,148 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>877.654</v>
+        <v>851.5</v>
       </c>
       <c r="B28" s="1">
-        <v>1015.356</v>
+        <v>1017.601</v>
       </c>
       <c r="C28" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>876.601</v>
+        <v>851.05399999999997</v>
       </c>
       <c r="B29" s="1">
-        <v>921.36199999999997</v>
+        <v>923.87400000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D29" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>876.31100000000004</v>
+        <v>851.10799999999995</v>
       </c>
       <c r="B30" s="1">
-        <v>827.35199999999998</v>
+        <v>831.73400000000004</v>
       </c>
       <c r="C30" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D30" s="1">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>876.67700000000002</v>
+        <v>851.99099999999999</v>
       </c>
       <c r="B31" s="1">
-        <v>733.39700000000005</v>
+        <v>738.72699999999998</v>
       </c>
       <c r="C31" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>877.48900000000003</v>
+        <v>853.24300000000005</v>
       </c>
       <c r="B32" s="1">
-        <v>636.88499999999999</v>
+        <v>644.89200000000005</v>
       </c>
       <c r="C32" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D32" s="1">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>879.298</v>
+        <v>855.46500000000003</v>
       </c>
       <c r="B33" s="1">
-        <v>540.529</v>
+        <v>550.64599999999996</v>
       </c>
       <c r="C33" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D33" s="1">
-        <v>9.9700000000000006</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>881.54499999999996</v>
+        <v>858.10799999999995</v>
       </c>
       <c r="B34" s="1">
-        <v>440.93099999999998</v>
+        <v>454.70100000000002</v>
       </c>
       <c r="C34" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D34" s="1">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>884.78899999999999</v>
+        <v>861.68799999999999</v>
       </c>
       <c r="B35" s="1">
-        <v>341.87900000000002</v>
+        <v>358.38</v>
       </c>
       <c r="C35" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D35" s="1">
-        <v>13.95</v>
+        <v>14.05</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>888.60199999999998</v>
+        <v>865.56899999999996</v>
       </c>
       <c r="B36" s="1">
-        <v>236.65600000000001</v>
+        <v>259.57900000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="D36" s="1">
-        <v>15.97</v>
+        <v>16.07</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>860.54100000000005</v>
+        <v>834.56500000000005</v>
       </c>
       <c r="B37" s="1">
-        <v>1017.921</v>
+        <v>1018.279</v>
       </c>
       <c r="C37" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,88 +912,88 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>894.03800000000001</v>
+        <v>863.53899999999999</v>
       </c>
       <c r="B38" s="1">
-        <v>1790.1179999999999</v>
+        <v>1793.38</v>
       </c>
       <c r="C38" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.07</v>
+        <v>-15.92</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>887.34</v>
+        <v>857.64099999999996</v>
       </c>
       <c r="B39" s="1">
-        <v>1685.8579999999999</v>
+        <v>1696.354</v>
       </c>
       <c r="C39" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.02</v>
+        <v>-14.08</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>881.34400000000005</v>
+        <v>852.36500000000001</v>
       </c>
       <c r="B40" s="1">
-        <v>1585.82</v>
+        <v>1594.0519999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.98</v>
+        <v>-12.03</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>876.16700000000003</v>
+        <v>847.5</v>
       </c>
       <c r="B41" s="1">
-        <v>1489.345</v>
+        <v>1494.741</v>
       </c>
       <c r="C41" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D41" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>871.52099999999996</v>
+        <v>843.54899999999998</v>
       </c>
       <c r="B42" s="1">
-        <v>1393.021</v>
+        <v>1396.3109999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.97</v>
+        <v>-8</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>867.80899999999997</v>
+        <v>840.41700000000003</v>
       </c>
       <c r="B43" s="1">
-        <v>1297.9760000000001</v>
+        <v>1301.059</v>
       </c>
       <c r="C43" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D43" s="1">
         <v>-6</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>864.61099999999999</v>
+        <v>837.71299999999997</v>
       </c>
       <c r="B44" s="1">
-        <v>1202.518</v>
+        <v>1205.5429999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D44" s="1">
         <v>-3.97</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>862.34199999999998</v>
+        <v>836.01</v>
       </c>
       <c r="B45" s="1">
-        <v>1109.875</v>
+        <v>1111.694</v>
       </c>
       <c r="C45" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D45" s="1">
         <v>-1.97</v>
@@ -1032,73 +1032,73 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>860.51499999999999</v>
+        <v>834.54100000000005</v>
       </c>
       <c r="B46" s="1">
-        <v>1015.746</v>
+        <v>1018.114</v>
       </c>
       <c r="C46" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>859.41200000000003</v>
+        <v>834.41700000000003</v>
       </c>
       <c r="B47" s="1">
-        <v>921.476</v>
+        <v>924.56</v>
       </c>
       <c r="C47" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D47" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>858.83900000000006</v>
+        <v>834.32799999999997</v>
       </c>
       <c r="B48" s="1">
-        <v>827.14499999999998</v>
+        <v>832.06100000000004</v>
       </c>
       <c r="C48" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D48" s="1">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>859.06</v>
+        <v>835.03899999999999</v>
       </c>
       <c r="B49" s="1">
-        <v>733.88599999999997</v>
+        <v>738.61599999999999</v>
       </c>
       <c r="C49" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D49" s="1">
-        <v>5.97</v>
+        <v>6.05</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>860.09500000000003</v>
+        <v>836.4</v>
       </c>
       <c r="B50" s="1">
-        <v>636.76</v>
+        <v>644.97500000000002</v>
       </c>
       <c r="C50" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D50" s="1">
         <v>8.0299999999999994</v>
@@ -1107,73 +1107,73 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>861.88400000000001</v>
+        <v>838.57799999999997</v>
       </c>
       <c r="B51" s="1">
-        <v>540.62</v>
+        <v>549.91099999999994</v>
       </c>
       <c r="C51" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D51" s="1">
-        <v>9.9700000000000006</v>
+        <v>10.07</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>863.72799999999995</v>
+        <v>841.05600000000004</v>
       </c>
       <c r="B52" s="1">
-        <v>441.36399999999998</v>
+        <v>455.5</v>
       </c>
       <c r="C52" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D52" s="1">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>867.16200000000003</v>
+        <v>844.279</v>
       </c>
       <c r="B53" s="1">
-        <v>343.10399999999998</v>
+        <v>358.98200000000003</v>
       </c>
       <c r="C53" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D53" s="1">
-        <v>13.95</v>
+        <v>14.05</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>870.58100000000002</v>
+        <v>848.12900000000002</v>
       </c>
       <c r="B54" s="1">
-        <v>239.55500000000001</v>
+        <v>261.31400000000002</v>
       </c>
       <c r="C54" s="1">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="D54" s="1">
-        <v>15.97</v>
+        <v>16.07</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>844.524</v>
+        <v>819.41399999999999</v>
       </c>
       <c r="B55" s="1">
-        <v>1017.831</v>
+        <v>1018.326</v>
       </c>
       <c r="C55" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,73 +1182,73 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>877.55100000000004</v>
+        <v>847.43100000000004</v>
       </c>
       <c r="B56" s="1">
-        <v>1789.5409999999999</v>
+        <v>1792.1959999999999</v>
       </c>
       <c r="C56" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D56" s="1">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>870.79700000000003</v>
+        <v>841.73900000000003</v>
       </c>
       <c r="B57" s="1">
-        <v>1685.133</v>
+        <v>1697.0840000000001</v>
       </c>
       <c r="C57" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.02</v>
+        <v>-14.1</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>864.82799999999997</v>
+        <v>836.36</v>
       </c>
       <c r="B58" s="1">
-        <v>1585.259</v>
+        <v>1593.326</v>
       </c>
       <c r="C58" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.98</v>
+        <v>-12.03</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>859.745</v>
+        <v>831.55499999999995</v>
       </c>
       <c r="B59" s="1">
-        <v>1488.384</v>
+        <v>1493.6220000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D59" s="1">
-        <v>-9.9700000000000006</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>855.45299999999997</v>
+        <v>827.77700000000004</v>
       </c>
       <c r="B60" s="1">
-        <v>1393.192</v>
+        <v>1395.6310000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D60" s="1">
         <v>-8</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>851.67899999999997</v>
+        <v>824.59799999999996</v>
       </c>
       <c r="B61" s="1">
-        <v>1297.498</v>
+        <v>1300.5440000000001</v>
       </c>
       <c r="C61" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D61" s="1">
         <v>-6</v>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>848.654</v>
+        <v>822.41200000000003</v>
       </c>
       <c r="B62" s="1">
-        <v>1202.8109999999999</v>
+        <v>1205.1120000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D62" s="1">
         <v>-3.97</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>846.26300000000003</v>
+        <v>820.49900000000002</v>
       </c>
       <c r="B63" s="1">
-        <v>1110.048</v>
+        <v>1111.4739999999999</v>
       </c>
       <c r="C63" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D63" s="1">
         <v>-1.97</v>
@@ -1302,148 +1302,148 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>844.505</v>
+        <v>819.39499999999998</v>
       </c>
       <c r="B64" s="1">
-        <v>1015.947</v>
+        <v>1017.955</v>
       </c>
       <c r="C64" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>843.45500000000004</v>
+        <v>818.5</v>
       </c>
       <c r="B65" s="1">
-        <v>921.53899999999999</v>
+        <v>924.53</v>
       </c>
       <c r="C65" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>842.96600000000001</v>
+        <v>818.66200000000003</v>
       </c>
       <c r="B66" s="1">
-        <v>827.81299999999999</v>
+        <v>832.00800000000004</v>
       </c>
       <c r="C66" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D66" s="1">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>843.02599999999995</v>
+        <v>819.45299999999997</v>
       </c>
       <c r="B67" s="1">
-        <v>734.35599999999999</v>
+        <v>739.37199999999996</v>
       </c>
       <c r="C67" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D67" s="1">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>843.94200000000001</v>
+        <v>820.92499999999995</v>
       </c>
       <c r="B68" s="1">
-        <v>637.71900000000005</v>
+        <v>645.84</v>
       </c>
       <c r="C68" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D68" s="1">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>845.66800000000001</v>
+        <v>822.87400000000002</v>
       </c>
       <c r="B69" s="1">
-        <v>541.89599999999996</v>
+        <v>551.41</v>
       </c>
       <c r="C69" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D69" s="1">
-        <v>9.9700000000000006</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>847.62300000000005</v>
+        <v>825.11699999999996</v>
       </c>
       <c r="B70" s="1">
-        <v>442.47800000000001</v>
+        <v>456.17899999999997</v>
       </c>
       <c r="C70" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D70" s="1">
-        <v>12</v>
+        <v>12.07</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>850.76</v>
+        <v>828.31</v>
       </c>
       <c r="B71" s="1">
-        <v>343.86200000000002</v>
+        <v>361.20299999999997</v>
       </c>
       <c r="C71" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D71" s="1">
-        <v>13.95</v>
+        <v>14.05</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>854.17200000000003</v>
+        <v>831.99900000000002</v>
       </c>
       <c r="B72" s="1">
-        <v>240.202</v>
+        <v>263.27699999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="D72" s="1">
-        <v>15.97</v>
+        <v>16.05</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>829.84100000000001</v>
+        <v>804.54899999999998</v>
       </c>
       <c r="B73" s="1">
-        <v>1018.235</v>
+        <v>1018.02</v>
       </c>
       <c r="C73" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,58 +1452,58 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>861.96600000000001</v>
+        <v>832.36500000000001</v>
       </c>
       <c r="B74" s="1">
-        <v>1788.3869999999999</v>
+        <v>1790.92</v>
       </c>
       <c r="C74" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D74" s="1">
-        <v>-16.07</v>
+        <v>-15.93</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>855.42399999999998</v>
+        <v>826.82100000000003</v>
       </c>
       <c r="B75" s="1">
-        <v>1683.864</v>
+        <v>1694.7909999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.02</v>
+        <v>-14.07</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>849.78800000000001</v>
+        <v>821.47500000000002</v>
       </c>
       <c r="B76" s="1">
-        <v>1584.346</v>
+        <v>1592.4870000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D76" s="1">
-        <v>-11.98</v>
+        <v>-12.05</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>844.79600000000005</v>
+        <v>816.904</v>
       </c>
       <c r="B77" s="1">
-        <v>1487.721</v>
+        <v>1492.0730000000001</v>
       </c>
       <c r="C77" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D77" s="1">
         <v>-10</v>
@@ -1512,196 +1512,196 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>840.45600000000002</v>
+        <v>813.34299999999996</v>
       </c>
       <c r="B78" s="1">
-        <v>1391.8610000000001</v>
+        <v>1395.8720000000001</v>
       </c>
       <c r="C78" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D78" s="1">
-        <v>-7.97</v>
+        <v>-8</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>836.803</v>
+        <v>810.2</v>
       </c>
       <c r="B79" s="1">
-        <v>1298.231</v>
+        <v>1299.4169999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D79" s="1">
-        <v>-6</v>
+        <v>-6.03</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>833.74599999999998</v>
+        <v>807.51599999999996</v>
       </c>
       <c r="B80" s="1">
-        <v>1202.9380000000001</v>
+        <v>1203.463</v>
       </c>
       <c r="C80" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.97</v>
+        <v>-3.98</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>831.37300000000005</v>
+        <v>805.62099999999998</v>
       </c>
       <c r="B81" s="1">
-        <v>1109.4469999999999</v>
+        <v>1110.105</v>
       </c>
       <c r="C81" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.97</v>
+        <v>-1.98</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>829.75099999999998</v>
+        <v>804.53200000000004</v>
       </c>
       <c r="B82" s="1">
-        <v>1015.748</v>
+        <v>1016.385</v>
       </c>
       <c r="C82" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>828.53300000000002</v>
+        <v>804.23900000000003</v>
       </c>
       <c r="B83" s="1">
-        <v>921.2</v>
+        <v>923.76900000000001</v>
       </c>
       <c r="C83" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>828.11400000000003</v>
+        <v>804.43600000000004</v>
       </c>
       <c r="B84" s="1">
-        <v>828.24599999999998</v>
+        <v>830.86099999999999</v>
       </c>
       <c r="C84" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D84" s="1">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>828.13599999999997</v>
+        <v>804.923</v>
       </c>
       <c r="B85" s="1">
-        <v>734.31299999999999</v>
+        <v>737.54399999999998</v>
       </c>
       <c r="C85" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D85" s="1">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>828.94399999999996</v>
+        <v>806.07100000000003</v>
       </c>
       <c r="B86" s="1">
-        <v>638.29200000000003</v>
+        <v>645.67100000000005</v>
       </c>
       <c r="C86" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D86" s="1">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>830.572</v>
+        <v>808.02700000000004</v>
       </c>
       <c r="B87" s="1">
-        <v>541.58199999999999</v>
+        <v>551.303</v>
       </c>
       <c r="C87" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D87" s="1">
-        <v>9.9700000000000006</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>832.54700000000003</v>
+        <v>810.42499999999995</v>
       </c>
       <c r="B88" s="1">
-        <v>443.166</v>
+        <v>456.50099999999998</v>
       </c>
       <c r="C88" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D88" s="1">
-        <v>12</v>
+        <v>12.07</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>835.404</v>
+        <v>813.43</v>
       </c>
       <c r="B89" s="1">
-        <v>344.43200000000002</v>
+        <v>361.46899999999999</v>
       </c>
       <c r="C89" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D89" s="1">
-        <v>13.95</v>
+        <v>14.05</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>838.52099999999996</v>
+        <v>816.99900000000002</v>
       </c>
       <c r="B90" s="1">
-        <v>240.42599999999999</v>
+        <v>263.13499999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="D90" s="1">
-        <v>15.97</v>
+        <v>16.05</v>
       </c>
       <c r="E90" s="1"/>
     </row>

--- a/cam6_validation.xlsx
+++ b/cam6_validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D59B9A-A590-49E1-A67A-1817D64D3EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE01FF-A4F5-4547-978D-ACC22EB85B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18746" yWindow="3129" windowWidth="16191" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8169" yWindow="3943" windowWidth="16191" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>869.721</v>
+        <v>822.42399999999998</v>
       </c>
       <c r="B1" s="1">
-        <v>1018.2670000000001</v>
+        <v>1018.297</v>
       </c>
       <c r="C1" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,118 +372,118 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>900.04499999999996</v>
+        <v>848.04300000000001</v>
       </c>
       <c r="B2" s="1">
-        <v>1796.3920000000001</v>
+        <v>1783.317</v>
       </c>
       <c r="C2" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.93</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>893.91099999999994</v>
+        <v>842.529</v>
       </c>
       <c r="B3" s="1">
-        <v>1699.556</v>
+        <v>1676.846</v>
       </c>
       <c r="C3" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.07</v>
+        <v>-13.95</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>887.88300000000004</v>
+        <v>838.12300000000005</v>
       </c>
       <c r="B4" s="1">
-        <v>1596.3230000000001</v>
+        <v>1579.2840000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.02</v>
+        <v>-11.95</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>883.05600000000004</v>
+        <v>834.03399999999999</v>
       </c>
       <c r="B5" s="1">
-        <v>1497.415</v>
+        <v>1483.174</v>
       </c>
       <c r="C5" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-10.02</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>878.93100000000004</v>
+        <v>830.50699999999995</v>
       </c>
       <c r="B6" s="1">
-        <v>1398.8440000000001</v>
+        <v>1388.251</v>
       </c>
       <c r="C6" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>875.50699999999995</v>
+        <v>827.61800000000005</v>
       </c>
       <c r="B7" s="1">
-        <v>1302.68</v>
+        <v>1293.941</v>
       </c>
       <c r="C7" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-6.03</v>
+        <v>-5.93</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>872.86400000000003</v>
+        <v>825.5</v>
       </c>
       <c r="B8" s="1">
-        <v>1205.33</v>
+        <v>1201.424</v>
       </c>
       <c r="C8" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.97</v>
+        <v>-3.93</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>870.91899999999998</v>
+        <v>823.58299999999997</v>
       </c>
       <c r="B9" s="1">
-        <v>1112.0440000000001</v>
+        <v>1108.915</v>
       </c>
       <c r="C9" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D9" s="1">
         <v>-1.97</v>
@@ -492,28 +492,28 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>869.625</v>
+        <v>822.35699999999997</v>
       </c>
       <c r="B10" s="1">
-        <v>1017.486</v>
+        <v>1014.8049999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>869.12</v>
+        <v>821.74</v>
       </c>
       <c r="B11" s="1">
-        <v>925.38800000000003</v>
+        <v>922.99900000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D11" s="1">
         <v>2.0299999999999998</v>
@@ -522,28 +522,28 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>869.18200000000002</v>
+        <v>821.13400000000001</v>
       </c>
       <c r="B12" s="1">
-        <v>831.77300000000002</v>
+        <v>828.78899999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>870.00400000000002</v>
+        <v>821.625</v>
       </c>
       <c r="B13" s="1">
-        <v>738.86</v>
+        <v>733.72400000000005</v>
       </c>
       <c r="C13" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D13" s="1">
         <v>6.05</v>
@@ -552,28 +552,28 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>871.82299999999998</v>
+        <v>822.47799999999995</v>
       </c>
       <c r="B14" s="1">
-        <v>645.72500000000002</v>
+        <v>638.79200000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.02</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>873.99300000000005</v>
+        <v>823.61300000000006</v>
       </c>
       <c r="B15" s="1">
-        <v>550.322</v>
+        <v>542.79200000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D15" s="1">
         <v>10.050000000000001</v>
@@ -582,43 +582,43 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>876.90499999999997</v>
+        <v>825.57100000000003</v>
       </c>
       <c r="B16" s="1">
-        <v>454.89400000000001</v>
+        <v>447.23700000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>880.07899999999995</v>
+        <v>828.06100000000004</v>
       </c>
       <c r="B17" s="1">
-        <v>357.72500000000002</v>
+        <v>347.82100000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>884.30200000000002</v>
+        <v>831.18499999999995</v>
       </c>
       <c r="B18" s="1">
-        <v>260.12099999999998</v>
+        <v>247.178</v>
       </c>
       <c r="C18" s="1">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="D18" s="1">
         <v>16.07</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>851.5</v>
+        <v>804.10599999999999</v>
       </c>
       <c r="B19" s="1">
-        <v>1018.259</v>
+        <v>1018.3390000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,118 +642,118 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>881.053</v>
+        <v>829.06399999999996</v>
       </c>
       <c r="B20" s="1">
-        <v>1793.837</v>
+        <v>1782.5740000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>875.21299999999997</v>
+        <v>823.71900000000005</v>
       </c>
       <c r="B21" s="1">
-        <v>1698.1659999999999</v>
+        <v>1676.548</v>
       </c>
       <c r="C21" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D21" s="1">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>869.43299999999999</v>
+        <v>819.47900000000004</v>
       </c>
       <c r="B22" s="1">
-        <v>1594.0609999999999</v>
+        <v>1579.452</v>
       </c>
       <c r="C22" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D22" s="1">
-        <v>-12.03</v>
+        <v>-11.95</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>864.50099999999998</v>
+        <v>815.5</v>
       </c>
       <c r="B23" s="1">
-        <v>1494.8620000000001</v>
+        <v>1483.2670000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D23" s="1">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>860.5</v>
+        <v>812.34</v>
       </c>
       <c r="B24" s="1">
-        <v>1396.95</v>
+        <v>1388.3009999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D24" s="1">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>857.19</v>
+        <v>809.49300000000005</v>
       </c>
       <c r="B25" s="1">
-        <v>1300.548</v>
+        <v>1294.1590000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D25" s="1">
-        <v>-6</v>
+        <v>-5.93</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>854.5</v>
+        <v>807.36800000000005</v>
       </c>
       <c r="B26" s="1">
-        <v>1205.7809999999999</v>
+        <v>1201.6479999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.97</v>
+        <v>-3.93</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>852.62599999999998</v>
+        <v>805.49900000000002</v>
       </c>
       <c r="B27" s="1">
-        <v>1111.454</v>
+        <v>1109.6600000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D27" s="1">
         <v>-1.97</v>
@@ -762,58 +762,58 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>851.5</v>
+        <v>804.07100000000003</v>
       </c>
       <c r="B28" s="1">
-        <v>1017.601</v>
+        <v>1015.841</v>
       </c>
       <c r="C28" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>851.05399999999997</v>
+        <v>803.16700000000003</v>
       </c>
       <c r="B29" s="1">
-        <v>923.87400000000002</v>
+        <v>923.17600000000004</v>
       </c>
       <c r="C29" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D29" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>851.10799999999995</v>
+        <v>802.99900000000002</v>
       </c>
       <c r="B30" s="1">
-        <v>831.73400000000004</v>
+        <v>829.01199999999994</v>
       </c>
       <c r="C30" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D30" s="1">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>851.99099999999999</v>
+        <v>803.13</v>
       </c>
       <c r="B31" s="1">
-        <v>738.72699999999998</v>
+        <v>734.32899999999995</v>
       </c>
       <c r="C31" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D31" s="1">
         <v>6.05</v>
@@ -822,28 +822,28 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>853.24300000000005</v>
+        <v>804</v>
       </c>
       <c r="B32" s="1">
-        <v>644.89200000000005</v>
+        <v>640.55799999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D32" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.02</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>855.46500000000003</v>
+        <v>805.38800000000003</v>
       </c>
       <c r="B33" s="1">
-        <v>550.64599999999996</v>
+        <v>543.65899999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D33" s="1">
         <v>10.050000000000001</v>
@@ -852,58 +852,58 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>858.10799999999995</v>
+        <v>806.96299999999997</v>
       </c>
       <c r="B34" s="1">
-        <v>454.70100000000002</v>
+        <v>447.81</v>
       </c>
       <c r="C34" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D34" s="1">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>861.68799999999999</v>
+        <v>809.14599999999996</v>
       </c>
       <c r="B35" s="1">
-        <v>358.38</v>
+        <v>349.29500000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D35" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>865.56899999999996</v>
+        <v>811.99099999999999</v>
       </c>
       <c r="B36" s="1">
-        <v>259.57900000000001</v>
+        <v>248.79499999999999</v>
       </c>
       <c r="C36" s="1">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="D36" s="1">
-        <v>16.07</v>
+        <v>16.05</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>834.56500000000005</v>
+        <v>787.399</v>
       </c>
       <c r="B37" s="1">
-        <v>1018.279</v>
+        <v>1017.883</v>
       </c>
       <c r="C37" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,178 +912,178 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>863.53899999999999</v>
+        <v>811.50099999999998</v>
       </c>
       <c r="B38" s="1">
-        <v>1793.38</v>
+        <v>1779.8989999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.92</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>857.64099999999996</v>
+        <v>806.45500000000004</v>
       </c>
       <c r="B39" s="1">
-        <v>1696.354</v>
+        <v>1675.11</v>
       </c>
       <c r="C39" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.08</v>
+        <v>-13.98</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>852.36500000000001</v>
+        <v>802.19200000000001</v>
       </c>
       <c r="B40" s="1">
-        <v>1594.0519999999999</v>
+        <v>1577.21</v>
       </c>
       <c r="C40" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D40" s="1">
-        <v>-12.03</v>
+        <v>-11.95</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>847.5</v>
+        <v>798.46500000000003</v>
       </c>
       <c r="B41" s="1">
-        <v>1494.741</v>
+        <v>1480.867</v>
       </c>
       <c r="C41" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D41" s="1">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>843.54899999999998</v>
+        <v>795.33799999999997</v>
       </c>
       <c r="B42" s="1">
-        <v>1396.3109999999999</v>
+        <v>1385.9079999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D42" s="1">
-        <v>-8</v>
+        <v>-7.93</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>840.41700000000003</v>
+        <v>792.47699999999998</v>
       </c>
       <c r="B43" s="1">
-        <v>1301.059</v>
+        <v>1293.296</v>
       </c>
       <c r="C43" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D43" s="1">
-        <v>-6</v>
+        <v>-5.93</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>837.71299999999997</v>
+        <v>790.35699999999997</v>
       </c>
       <c r="B44" s="1">
-        <v>1205.5429999999999</v>
+        <v>1200.617</v>
       </c>
       <c r="C44" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.97</v>
+        <v>-3.93</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>836.01</v>
+        <v>788.49800000000005</v>
       </c>
       <c r="B45" s="1">
-        <v>1111.694</v>
+        <v>1108.42</v>
       </c>
       <c r="C45" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.97</v>
+        <v>-1.98</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>834.54100000000005</v>
+        <v>787.404</v>
       </c>
       <c r="B46" s="1">
-        <v>1018.114</v>
+        <v>1014.6559999999999</v>
       </c>
       <c r="C46" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D46" s="1">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>834.41700000000003</v>
+        <v>786.45500000000004</v>
       </c>
       <c r="B47" s="1">
-        <v>924.56</v>
+        <v>922.42100000000005</v>
       </c>
       <c r="C47" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D47" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>834.32799999999997</v>
+        <v>786.00900000000001</v>
       </c>
       <c r="B48" s="1">
-        <v>832.06100000000004</v>
+        <v>828.59</v>
       </c>
       <c r="C48" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D48" s="1">
-        <v>4.05</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>835.03899999999999</v>
+        <v>786.20299999999997</v>
       </c>
       <c r="B49" s="1">
-        <v>738.61599999999999</v>
+        <v>733.60299999999995</v>
       </c>
       <c r="C49" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D49" s="1">
         <v>6.05</v>
@@ -1092,88 +1092,88 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>836.4</v>
+        <v>786.99900000000002</v>
       </c>
       <c r="B50" s="1">
-        <v>644.97500000000002</v>
+        <v>639.59699999999998</v>
       </c>
       <c r="C50" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D50" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>838.57799999999997</v>
+        <v>788.08900000000006</v>
       </c>
       <c r="B51" s="1">
-        <v>549.91099999999994</v>
+        <v>544.21299999999997</v>
       </c>
       <c r="C51" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D51" s="1">
-        <v>10.07</v>
+        <v>10.02</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>841.05600000000004</v>
+        <v>789.79300000000001</v>
       </c>
       <c r="B52" s="1">
-        <v>455.5</v>
+        <v>447.20800000000003</v>
       </c>
       <c r="C52" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D52" s="1">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>844.279</v>
+        <v>791.99099999999999</v>
       </c>
       <c r="B53" s="1">
-        <v>358.98200000000003</v>
+        <v>348.733</v>
       </c>
       <c r="C53" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D53" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>848.12900000000002</v>
+        <v>794.50099999999998</v>
       </c>
       <c r="B54" s="1">
-        <v>261.31400000000002</v>
+        <v>248.29599999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="D54" s="1">
-        <v>16.07</v>
+        <v>16.05</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>819.41399999999999</v>
+        <v>771.55399999999997</v>
       </c>
       <c r="B55" s="1">
-        <v>1018.326</v>
+        <v>1018.263</v>
       </c>
       <c r="C55" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,163 +1182,163 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>847.43100000000004</v>
+        <v>795.22</v>
       </c>
       <c r="B56" s="1">
-        <v>1792.1959999999999</v>
+        <v>1781.6489999999999</v>
       </c>
       <c r="C56" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>841.73900000000003</v>
+        <v>790.38400000000001</v>
       </c>
       <c r="B57" s="1">
-        <v>1697.0840000000001</v>
+        <v>1675.288</v>
       </c>
       <c r="C57" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>836.36</v>
+        <v>786.38699999999994</v>
       </c>
       <c r="B58" s="1">
-        <v>1593.326</v>
+        <v>1578.6489999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D58" s="1">
-        <v>-12.03</v>
+        <v>-11.95</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>831.55499999999995</v>
+        <v>782.54100000000005</v>
       </c>
       <c r="B59" s="1">
-        <v>1493.6220000000001</v>
+        <v>1482.575</v>
       </c>
       <c r="C59" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D59" s="1">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>827.77700000000004</v>
+        <v>779.48199999999997</v>
       </c>
       <c r="B60" s="1">
-        <v>1395.6310000000001</v>
+        <v>1387.771</v>
       </c>
       <c r="C60" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D60" s="1">
-        <v>-8</v>
+        <v>-7.93</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>824.59799999999996</v>
+        <v>776.71500000000003</v>
       </c>
       <c r="B61" s="1">
-        <v>1300.5440000000001</v>
+        <v>1295.431</v>
       </c>
       <c r="C61" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D61" s="1">
-        <v>-6</v>
+        <v>-5.95</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>822.41200000000003</v>
+        <v>774.51300000000003</v>
       </c>
       <c r="B62" s="1">
-        <v>1205.1120000000001</v>
+        <v>1201.6120000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.97</v>
+        <v>-3.93</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>820.49900000000002</v>
+        <v>772.70100000000002</v>
       </c>
       <c r="B63" s="1">
-        <v>1111.4739999999999</v>
+        <v>1109.5889999999999</v>
       </c>
       <c r="C63" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.97</v>
+        <v>-1.95</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>819.39499999999998</v>
+        <v>771.55899999999997</v>
       </c>
       <c r="B64" s="1">
-        <v>1017.955</v>
+        <v>1016.448</v>
       </c>
       <c r="C64" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D64" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>818.5</v>
+        <v>770.73400000000004</v>
       </c>
       <c r="B65" s="1">
-        <v>924.53</v>
+        <v>923.846</v>
       </c>
       <c r="C65" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>818.66200000000003</v>
+        <v>770.5</v>
       </c>
       <c r="B66" s="1">
-        <v>832.00800000000004</v>
+        <v>829.86500000000001</v>
       </c>
       <c r="C66" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D66" s="1">
         <v>4.05</v>
@@ -1347,28 +1347,28 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>819.45299999999997</v>
+        <v>770.61699999999996</v>
       </c>
       <c r="B67" s="1">
-        <v>739.37199999999996</v>
+        <v>736.46199999999999</v>
       </c>
       <c r="C67" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D67" s="1">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>820.92499999999995</v>
+        <v>771.02200000000005</v>
       </c>
       <c r="B68" s="1">
-        <v>645.84</v>
+        <v>641.66600000000005</v>
       </c>
       <c r="C68" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D68" s="1">
         <v>8.0500000000000007</v>
@@ -1377,73 +1377,73 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>822.87400000000002</v>
+        <v>772.23599999999999</v>
       </c>
       <c r="B69" s="1">
-        <v>551.41</v>
+        <v>546.57600000000002</v>
       </c>
       <c r="C69" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D69" s="1">
-        <v>10.050000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>825.11699999999996</v>
+        <v>773.79300000000001</v>
       </c>
       <c r="B70" s="1">
-        <v>456.17899999999997</v>
+        <v>449.6</v>
       </c>
       <c r="C70" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D70" s="1">
-        <v>12.07</v>
+        <v>12.02</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>828.31</v>
+        <v>775.96100000000001</v>
       </c>
       <c r="B71" s="1">
-        <v>361.20299999999997</v>
+        <v>351.01</v>
       </c>
       <c r="C71" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D71" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>831.99900000000002</v>
+        <v>778.12</v>
       </c>
       <c r="B72" s="1">
-        <v>263.27699999999999</v>
+        <v>250.77</v>
       </c>
       <c r="C72" s="1">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="D72" s="1">
-        <v>16.05</v>
+        <v>16.07</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>804.54899999999998</v>
+        <v>757.12699999999995</v>
       </c>
       <c r="B73" s="1">
-        <v>1018.02</v>
+        <v>1018.2140000000001</v>
       </c>
       <c r="C73" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,133 +1452,133 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>832.36500000000001</v>
+        <v>780.154</v>
       </c>
       <c r="B74" s="1">
-        <v>1790.92</v>
+        <v>1781.0239999999999</v>
       </c>
       <c r="C74" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D74" s="1">
-        <v>-15.93</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>826.82100000000003</v>
+        <v>775.41099999999994</v>
       </c>
       <c r="B75" s="1">
-        <v>1694.7909999999999</v>
+        <v>1675.634</v>
       </c>
       <c r="C75" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.07</v>
+        <v>-13.95</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>821.47500000000002</v>
+        <v>771.43499999999995</v>
       </c>
       <c r="B76" s="1">
-        <v>1592.4870000000001</v>
+        <v>1577.981</v>
       </c>
       <c r="C76" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D76" s="1">
-        <v>-12.05</v>
+        <v>-11.95</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>816.904</v>
+        <v>767.68499999999995</v>
       </c>
       <c r="B77" s="1">
-        <v>1492.0730000000001</v>
+        <v>1482.5150000000001</v>
       </c>
       <c r="C77" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D77" s="1">
-        <v>-10</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>813.34299999999996</v>
+        <v>764.58600000000001</v>
       </c>
       <c r="B78" s="1">
-        <v>1395.8720000000001</v>
+        <v>1387.575</v>
       </c>
       <c r="C78" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D78" s="1">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>810.2</v>
+        <v>762.25900000000001</v>
       </c>
       <c r="B79" s="1">
-        <v>1299.4169999999999</v>
+        <v>1294.067</v>
       </c>
       <c r="C79" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D79" s="1">
-        <v>-6.03</v>
+        <v>-5.93</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>807.51599999999996</v>
+        <v>759.995</v>
       </c>
       <c r="B80" s="1">
-        <v>1203.463</v>
+        <v>1201.8979999999999</v>
       </c>
       <c r="C80" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.98</v>
+        <v>-3.93</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>805.62099999999998</v>
+        <v>758.43299999999999</v>
       </c>
       <c r="B81" s="1">
-        <v>1110.105</v>
+        <v>1110.056</v>
       </c>
       <c r="C81" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.98</v>
+        <v>-1.95</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>804.53200000000004</v>
+        <v>757.08</v>
       </c>
       <c r="B82" s="1">
-        <v>1016.385</v>
+        <v>1017.25</v>
       </c>
       <c r="C82" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D82" s="1">
         <v>0.05</v>
@@ -1587,28 +1587,28 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>804.23900000000003</v>
+        <v>756.43100000000004</v>
       </c>
       <c r="B83" s="1">
-        <v>923.76900000000001</v>
+        <v>924.54700000000003</v>
       </c>
       <c r="C83" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D83" s="1">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>804.43600000000004</v>
+        <v>755.68700000000001</v>
       </c>
       <c r="B84" s="1">
-        <v>830.86099999999999</v>
+        <v>830.44</v>
       </c>
       <c r="C84" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D84" s="1">
         <v>4.05</v>
@@ -1617,28 +1617,28 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>804.923</v>
+        <v>755.94100000000003</v>
       </c>
       <c r="B85" s="1">
-        <v>737.54399999999998</v>
+        <v>736.697</v>
       </c>
       <c r="C85" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D85" s="1">
-        <v>6.07</v>
+        <v>6.03</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>806.07100000000003</v>
+        <v>756.43899999999996</v>
       </c>
       <c r="B86" s="1">
-        <v>645.67100000000005</v>
+        <v>642.15899999999999</v>
       </c>
       <c r="C86" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D86" s="1">
         <v>8.0500000000000007</v>
@@ -1647,61 +1647,61 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>808.02700000000004</v>
+        <v>757.62300000000005</v>
       </c>
       <c r="B87" s="1">
-        <v>551.303</v>
+        <v>547.11599999999999</v>
       </c>
       <c r="C87" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D87" s="1">
-        <v>10.050000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>810.42499999999995</v>
+        <v>758.87699999999995</v>
       </c>
       <c r="B88" s="1">
-        <v>456.50099999999998</v>
+        <v>450.56299999999999</v>
       </c>
       <c r="C88" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D88" s="1">
-        <v>12.07</v>
+        <v>12.02</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>813.43</v>
+        <v>760.947</v>
       </c>
       <c r="B89" s="1">
-        <v>361.46899999999999</v>
+        <v>351.702</v>
       </c>
       <c r="C89" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D89" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>816.99900000000002</v>
+        <v>763.072</v>
       </c>
       <c r="B90" s="1">
-        <v>263.13499999999999</v>
+        <v>251.21799999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="D90" s="1">
-        <v>16.05</v>
+        <v>16.07</v>
       </c>
       <c r="E90" s="1"/>
     </row>
